--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H2">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.73680229749199</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N2">
-        <v>1.73680229749199</v>
+        <v>2.951542</v>
       </c>
       <c r="O2">
-        <v>0.005637604245418366</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P2">
-        <v>0.005637604245418366</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q2">
-        <v>1.299471394677673</v>
+        <v>3.389092687891778</v>
       </c>
       <c r="R2">
-        <v>1.299471394677673</v>
+        <v>30.501834191026</v>
       </c>
       <c r="S2">
-        <v>2.309805902759405E-05</v>
+        <v>3.68810929272454E-05</v>
       </c>
       <c r="T2">
-        <v>2.309805902759405E-05</v>
+        <v>3.68810929272454E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H3">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>66.25474500985931</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N3">
-        <v>66.25474500985931</v>
+        <v>5.3792</v>
       </c>
       <c r="O3">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P3">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q3">
-        <v>49.5716444101333</v>
+        <v>6.176638308622221</v>
       </c>
       <c r="R3">
-        <v>49.5716444101333</v>
+        <v>55.58974477759999</v>
       </c>
       <c r="S3">
-        <v>0.0008811342622622137</v>
+        <v>6.721597560672979E-05</v>
       </c>
       <c r="T3">
-        <v>0.0008811342622622137</v>
+        <v>6.721597560672979E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H4">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I4">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J4">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>92.69930650757991</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N4">
-        <v>92.69930650757991</v>
+        <v>233.556772</v>
       </c>
       <c r="O4">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P4">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q4">
-        <v>69.35740313506437</v>
+        <v>268.1803437636351</v>
       </c>
       <c r="R4">
-        <v>69.35740313506437</v>
+        <v>2413.623093872716</v>
       </c>
       <c r="S4">
-        <v>0.001232825438232695</v>
+        <v>0.002918416546984412</v>
       </c>
       <c r="T4">
-        <v>0.001232825438232695</v>
+        <v>0.002918416546984412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H5">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I5">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J5">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.383679601187</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N5">
-        <v>147.383679601187</v>
+        <v>278.767883</v>
       </c>
       <c r="O5">
-        <v>0.4784026708306816</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P5">
-        <v>0.4784026708306816</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q5">
-        <v>110.2721224866212</v>
+        <v>320.0937658669166</v>
       </c>
       <c r="R5">
-        <v>110.2721224866212</v>
+        <v>2880.843892802249</v>
       </c>
       <c r="S5">
-        <v>0.001960083157448683</v>
+        <v>0.003483353514215442</v>
       </c>
       <c r="T5">
-        <v>0.001960083157448683</v>
+        <v>0.003483353514215442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>152.565397034209</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H6">
-        <v>152.565397034209</v>
+        <v>10.334203</v>
       </c>
       <c r="I6">
-        <v>0.8354502744823105</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J6">
-        <v>0.8354502744823105</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73680229749199</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N6">
-        <v>1.73680229749199</v>
+        <v>450.652352</v>
       </c>
       <c r="O6">
-        <v>0.005637604245418366</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P6">
-        <v>0.005637604245418366</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q6">
-        <v>264.9759320867919</v>
+        <v>517.4592097772729</v>
       </c>
       <c r="R6">
-        <v>264.9759320867919</v>
+        <v>4657.132887995455</v>
       </c>
       <c r="S6">
-        <v>0.004709938014257412</v>
+        <v>0.00563114171236381</v>
       </c>
       <c r="T6">
-        <v>0.004709938014257412</v>
+        <v>0.00563114171236381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H7">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I7">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J7">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>66.25474500985931</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N7">
-        <v>66.25474500985931</v>
+        <v>2.951542</v>
       </c>
       <c r="O7">
-        <v>0.2150607655724942</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P7">
-        <v>0.2150607655724942</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q7">
-        <v>10108.18147782946</v>
+        <v>150.8994714412362</v>
       </c>
       <c r="R7">
-        <v>10108.18147782946</v>
+        <v>1358.095242971126</v>
       </c>
       <c r="S7">
-        <v>0.1796725756279161</v>
+        <v>0.001642131963159269</v>
       </c>
       <c r="T7">
-        <v>0.1796725756279161</v>
+        <v>0.001642131963159269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H8">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J8">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>92.69930650757991</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N8">
-        <v>92.69930650757991</v>
+        <v>5.3792</v>
       </c>
       <c r="O8">
-        <v>0.300898959351406</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P8">
-        <v>0.300898959351406</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q8">
-        <v>14142.70650212476</v>
+        <v>275.0150385041778</v>
       </c>
       <c r="R8">
-        <v>14142.70650212476</v>
+        <v>2475.1353465376</v>
       </c>
       <c r="S8">
-        <v>0.2513861181815737</v>
+        <v>0.002992793684191632</v>
       </c>
       <c r="T8">
-        <v>0.2513861181815737</v>
+        <v>0.002992793684191632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H9">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J9">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>147.383679601187</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N9">
-        <v>147.383679601187</v>
+        <v>233.556772</v>
       </c>
       <c r="O9">
-        <v>0.4784026708306816</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P9">
-        <v>0.4784026708306816</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q9">
-        <v>22485.64959471775</v>
+        <v>11940.73926317881</v>
       </c>
       <c r="R9">
-        <v>22485.64959471775</v>
+        <v>107466.6533686093</v>
       </c>
       <c r="S9">
-        <v>0.3996816426585633</v>
+        <v>0.1299425996694276</v>
       </c>
       <c r="T9">
-        <v>0.3996816426585633</v>
+        <v>0.1299425996694276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.51967510111432</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H10">
-        <v>4.51967510111432</v>
+        <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.02474980485221139</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J10">
-        <v>0.02474980485221139</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.73680229749199</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N10">
-        <v>1.73680229749199</v>
+        <v>278.767883</v>
       </c>
       <c r="O10">
-        <v>0.005637604245418366</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P10">
-        <v>0.005637604245418366</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q10">
-        <v>7.849782099532693</v>
+        <v>14252.18621300066</v>
       </c>
       <c r="R10">
-        <v>7.849782099532693</v>
+        <v>128269.6759170059</v>
       </c>
       <c r="S10">
-        <v>0.000139529604908103</v>
+        <v>0.1550964380573082</v>
       </c>
       <c r="T10">
-        <v>0.000139529604908103</v>
+        <v>0.1550964380573081</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.51967510111432</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H11">
-        <v>4.51967510111432</v>
+        <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.02474980485221139</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J11">
-        <v>0.02474980485221139</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.25474500985931</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N11">
-        <v>66.25474500985931</v>
+        <v>450.652352</v>
       </c>
       <c r="O11">
-        <v>0.2150607655724942</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P11">
-        <v>0.2150607655724942</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q11">
-        <v>299.4499213517394</v>
+        <v>23039.8895629979</v>
       </c>
       <c r="R11">
-        <v>299.4499213517394</v>
+        <v>207359.0060669811</v>
       </c>
       <c r="S11">
-        <v>0.005322711979286411</v>
+        <v>0.2507267833193977</v>
       </c>
       <c r="T11">
-        <v>0.005322711979286411</v>
+        <v>0.2507267833193977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H12">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I12">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J12">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>92.69930650757991</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N12">
-        <v>92.69930650757991</v>
+        <v>2.951542</v>
       </c>
       <c r="O12">
-        <v>0.300898959351406</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P12">
-        <v>0.300898959351406</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q12">
-        <v>418.9707475128735</v>
+        <v>90.20877998157668</v>
       </c>
       <c r="R12">
-        <v>418.9707475128735</v>
+        <v>811.8790198341902</v>
       </c>
       <c r="S12">
-        <v>0.007447190524180784</v>
+        <v>0.0009816781964212256</v>
       </c>
       <c r="T12">
-        <v>0.007447190524180784</v>
+        <v>0.0009816781964212256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H13">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I13">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J13">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.383679601187</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N13">
-        <v>147.383679601187</v>
+        <v>5.3792</v>
       </c>
       <c r="O13">
-        <v>0.4784026708306816</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P13">
-        <v>0.4784026708306816</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q13">
-        <v>666.1263470040954</v>
+        <v>164.4059509493333</v>
       </c>
       <c r="R13">
-        <v>666.1263470040954</v>
+        <v>1479.653558544</v>
       </c>
       <c r="S13">
-        <v>0.01184037274383609</v>
+        <v>0.001789113403837403</v>
       </c>
       <c r="T13">
-        <v>0.01184037274383609</v>
+        <v>0.001789113403837403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.75936384138981</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H14">
-        <v>3.75936384138981</v>
+        <v>275.069445</v>
       </c>
       <c r="I14">
-        <v>0.02058632962796768</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J14">
-        <v>0.02058632962796768</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.73680229749199</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N14">
-        <v>1.73680229749199</v>
+        <v>233.556772</v>
       </c>
       <c r="O14">
-        <v>0.005637604245418366</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P14">
-        <v>0.005637604245418366</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q14">
-        <v>6.529271756834135</v>
+        <v>7138.259072225726</v>
       </c>
       <c r="R14">
-        <v>6.529271756834135</v>
+        <v>64244.33165003155</v>
       </c>
       <c r="S14">
-        <v>0.0001160575793082125</v>
+        <v>0.07768061260823102</v>
       </c>
       <c r="T14">
-        <v>0.0001160575793082125</v>
+        <v>0.07768061260823102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.75936384138981</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H15">
-        <v>3.75936384138981</v>
+        <v>275.069445</v>
       </c>
       <c r="I15">
-        <v>0.02058632962796768</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J15">
-        <v>0.02058632962796768</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>66.25474500985931</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N15">
-        <v>66.25474500985931</v>
+        <v>278.767883</v>
       </c>
       <c r="O15">
-        <v>0.2150607655724942</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P15">
-        <v>0.2150607655724942</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q15">
-        <v>249.075692710567</v>
+        <v>8520.058540070551</v>
       </c>
       <c r="R15">
-        <v>249.075692710567</v>
+        <v>76680.52686063496</v>
       </c>
       <c r="S15">
-        <v>0.004427311810118449</v>
+        <v>0.09271775655017048</v>
       </c>
       <c r="T15">
-        <v>0.004427311810118449</v>
+        <v>0.09271775655017049</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.75936384138981</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H16">
-        <v>3.75936384138981</v>
+        <v>275.069445</v>
       </c>
       <c r="I16">
-        <v>0.02058632962796768</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J16">
-        <v>0.02058632962796768</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>92.69930650757991</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N16">
-        <v>92.69930650757991</v>
+        <v>450.652352</v>
       </c>
       <c r="O16">
-        <v>0.300898959351406</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P16">
-        <v>0.300898959351406</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q16">
-        <v>348.490421006507</v>
+        <v>13773.4102613983</v>
       </c>
       <c r="R16">
-        <v>348.490421006507</v>
+        <v>123960.6923525847</v>
       </c>
       <c r="S16">
-        <v>0.006194405161920492</v>
+        <v>0.1498862588180495</v>
       </c>
       <c r="T16">
-        <v>0.006194405161920492</v>
+        <v>0.1498862588180495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H17">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I17">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J17">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>147.383679601187</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N17">
-        <v>147.383679601187</v>
+        <v>2.951542</v>
       </c>
       <c r="O17">
-        <v>0.4784026708306816</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P17">
-        <v>0.4784026708306816</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q17">
-        <v>554.0688759036833</v>
+        <v>8.224510480995113</v>
       </c>
       <c r="R17">
-        <v>554.0688759036833</v>
+        <v>74.02059432895601</v>
       </c>
       <c r="S17">
-        <v>0.00984855507662053</v>
+        <v>8.95015165605794E-05</v>
       </c>
       <c r="T17">
-        <v>0.00984855507662053</v>
+        <v>8.950151656057941E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,57 +1529,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.98049372341085</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H18">
-        <v>6.98049372341085</v>
+        <v>25.078618</v>
       </c>
       <c r="I18">
-        <v>0.03822528247304984</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J18">
-        <v>0.03822528247304984</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.73680229749199</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N18">
-        <v>1.73680229749199</v>
+        <v>5.3792</v>
       </c>
       <c r="O18">
-        <v>0.005637604245418366</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P18">
-        <v>0.005637604245418366</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q18">
-        <v>12.12373753644838</v>
+        <v>14.98921132728889</v>
       </c>
       <c r="R18">
-        <v>12.12373753644838</v>
+        <v>134.9029019456</v>
       </c>
       <c r="S18">
-        <v>0.0002154990147523821</v>
+        <v>0.0001631169598408793</v>
       </c>
       <c r="T18">
-        <v>0.0002154990147523821</v>
+        <v>0.0001631169598408793</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.98049372341085</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H19">
-        <v>6.98049372341085</v>
+        <v>25.078618</v>
       </c>
       <c r="I19">
-        <v>0.03822528247304984</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J19">
-        <v>0.03822528247304984</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.25474500985931</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N19">
-        <v>66.25474500985931</v>
+        <v>233.556772</v>
       </c>
       <c r="O19">
-        <v>0.2150607655724942</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P19">
-        <v>0.2150607655724942</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q19">
-        <v>462.4908316875092</v>
+        <v>650.8090073667885</v>
       </c>
       <c r="R19">
-        <v>462.4908316875092</v>
+        <v>5857.281066301096</v>
       </c>
       <c r="S19">
-        <v>0.008220758512878941</v>
+        <v>0.007082293017342618</v>
       </c>
       <c r="T19">
-        <v>0.008220758512878941</v>
+        <v>0.007082293017342619</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.98049372341085</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H20">
-        <v>6.98049372341085</v>
+        <v>25.078618</v>
       </c>
       <c r="I20">
-        <v>0.03822528247304984</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J20">
-        <v>0.03822528247304984</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>92.69930650757991</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N20">
-        <v>92.69930650757991</v>
+        <v>278.767883</v>
       </c>
       <c r="O20">
-        <v>0.300898959351406</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P20">
-        <v>0.300898959351406</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q20">
-        <v>647.0869272407001</v>
+        <v>776.7903609361884</v>
       </c>
       <c r="R20">
-        <v>647.0869272407001</v>
+        <v>6991.113248425696</v>
       </c>
       <c r="S20">
-        <v>0.01150194771705424</v>
+        <v>0.008453258770121571</v>
       </c>
       <c r="T20">
-        <v>0.01150194771705424</v>
+        <v>0.008453258770121572</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.98049372341085</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H21">
-        <v>6.98049372341085</v>
+        <v>25.078618</v>
       </c>
       <c r="I21">
-        <v>0.03822528247304984</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J21">
-        <v>0.03822528247304984</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>147.383679601187</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N21">
-        <v>147.383679601187</v>
+        <v>450.652352</v>
       </c>
       <c r="O21">
-        <v>0.4784026708306816</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P21">
-        <v>0.4784026708306816</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q21">
-        <v>1028.810850389282</v>
+        <v>1255.74868740106</v>
       </c>
       <c r="R21">
-        <v>1028.810850389282</v>
+        <v>11301.73818660954</v>
       </c>
       <c r="S21">
-        <v>0.01828707722836428</v>
+        <v>0.01366542266570899</v>
       </c>
       <c r="T21">
-        <v>0.01828707722836428</v>
+        <v>0.01366542266570899</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.041447921999</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H22">
-        <v>14.041447921999</v>
+        <v>26.279142</v>
       </c>
       <c r="I22">
-        <v>0.07689116764748929</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J22">
-        <v>0.07689116764748929</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.73680229749199</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N22">
-        <v>1.73680229749199</v>
+        <v>2.951542</v>
       </c>
       <c r="O22">
-        <v>0.005637604245418366</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P22">
-        <v>0.005637604245418366</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q22">
-        <v>24.38721901104199</v>
+        <v>8.618221259662668</v>
       </c>
       <c r="R22">
-        <v>24.38721901104199</v>
+        <v>77.56399133696401</v>
       </c>
       <c r="S22">
-        <v>0.000433481973164661</v>
+        <v>9.378599183219816E-05</v>
       </c>
       <c r="T22">
-        <v>0.000433481973164661</v>
+        <v>9.378599183219816E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.041447921999</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H23">
-        <v>14.041447921999</v>
+        <v>26.279142</v>
       </c>
       <c r="I23">
-        <v>0.07689116764748929</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J23">
-        <v>0.07689116764748929</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>66.25474500985931</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N23">
-        <v>66.25474500985931</v>
+        <v>5.3792</v>
       </c>
       <c r="O23">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P23">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q23">
-        <v>930.3125516412625</v>
+        <v>15.70675118293333</v>
       </c>
       <c r="R23">
-        <v>930.3125516412625</v>
+        <v>141.3607606464</v>
       </c>
       <c r="S23">
-        <v>0.01653627338003204</v>
+        <v>0.0001709254373692667</v>
       </c>
       <c r="T23">
-        <v>0.01653627338003204</v>
+        <v>0.0001709254373692667</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.041447921999</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H24">
-        <v>14.041447921999</v>
+        <v>26.279142</v>
       </c>
       <c r="I24">
-        <v>0.07689116764748929</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J24">
-        <v>0.07689116764748929</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>92.69930650757991</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N24">
-        <v>92.69930650757991</v>
+        <v>233.556772</v>
       </c>
       <c r="O24">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P24">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q24">
-        <v>1301.632484731606</v>
+        <v>681.9635084944026</v>
       </c>
       <c r="R24">
-        <v>1301.632484731606</v>
+        <v>6137.671576449624</v>
       </c>
       <c r="S24">
-        <v>0.02313647232844402</v>
+        <v>0.007421325365231653</v>
       </c>
       <c r="T24">
-        <v>0.02313647232844402</v>
+        <v>0.007421325365231653</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.759714000000001</v>
+      </c>
+      <c r="H25">
+        <v>26.279142</v>
+      </c>
+      <c r="I25">
+        <v>0.03086354882101112</v>
+      </c>
+      <c r="J25">
+        <v>0.03086354882101111</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>92.92262766666668</v>
+      </c>
+      <c r="N25">
+        <v>278.767883</v>
+      </c>
+      <c r="O25">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="P25">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="Q25">
+        <v>813.9756424884876</v>
+      </c>
+      <c r="R25">
+        <v>7325.780782396387</v>
+      </c>
+      <c r="S25">
+        <v>0.008857919825676604</v>
+      </c>
+      <c r="T25">
+        <v>0.008857919825676604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.759714000000001</v>
+      </c>
+      <c r="H26">
+        <v>26.279142</v>
+      </c>
+      <c r="I26">
+        <v>0.03086354882101112</v>
+      </c>
+      <c r="J26">
+        <v>0.03086354882101111</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>150.2174506666667</v>
+      </c>
+      <c r="N26">
+        <v>450.652352</v>
+      </c>
+      <c r="O26">
+        <v>0.4639645390083261</v>
+      </c>
+      <c r="P26">
+        <v>0.4639645390083262</v>
+      </c>
+      <c r="Q26">
+        <v>1315.86190564911</v>
+      </c>
+      <c r="R26">
+        <v>11842.75715084198</v>
+      </c>
+      <c r="S26">
+        <v>0.01431959220090139</v>
+      </c>
+      <c r="T26">
+        <v>0.01431959220090139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H27">
+        <v>54.569936</v>
+      </c>
+      <c r="I27">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J27">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.9838473333333334</v>
+      </c>
+      <c r="N27">
+        <v>2.951542</v>
+      </c>
+      <c r="O27">
+        <v>0.00303873000399588</v>
+      </c>
+      <c r="P27">
+        <v>0.003038730003995881</v>
+      </c>
+      <c r="Q27">
+        <v>17.89616200459022</v>
+      </c>
+      <c r="R27">
+        <v>161.065458041312</v>
+      </c>
+      <c r="S27">
+        <v>0.0001947512430953634</v>
+      </c>
+      <c r="T27">
+        <v>0.0001947512430953635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H28">
+        <v>54.569936</v>
+      </c>
+      <c r="I28">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J28">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.793066666666667</v>
+      </c>
+      <c r="N28">
+        <v>5.3792</v>
+      </c>
+      <c r="O28">
+        <v>0.005538100571665468</v>
+      </c>
+      <c r="P28">
+        <v>0.005538100571665469</v>
+      </c>
+      <c r="Q28">
+        <v>32.61584441457777</v>
+      </c>
+      <c r="R28">
+        <v>293.5425997312</v>
+      </c>
+      <c r="S28">
+        <v>0.0003549351108195577</v>
+      </c>
+      <c r="T28">
+        <v>0.0003549351108195578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H29">
+        <v>54.569936</v>
+      </c>
+      <c r="I29">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J29">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>77.85225733333333</v>
+      </c>
+      <c r="N29">
+        <v>233.556772</v>
+      </c>
+      <c r="O29">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="P29">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="Q29">
+        <v>1416.130900045177</v>
+      </c>
+      <c r="R29">
+        <v>12745.17810040659</v>
+      </c>
+      <c r="S29">
+        <v>0.01541074857831614</v>
+      </c>
+      <c r="T29">
+        <v>0.01541074857831614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H30">
+        <v>54.569936</v>
+      </c>
+      <c r="I30">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J30">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>92.92262766666668</v>
+      </c>
+      <c r="N30">
+        <v>278.767883</v>
+      </c>
+      <c r="O30">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="P30">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="Q30">
+        <v>1690.260614907277</v>
+      </c>
+      <c r="R30">
+        <v>15212.34553416549</v>
+      </c>
+      <c r="S30">
+        <v>0.01839390791298678</v>
+      </c>
+      <c r="T30">
+        <v>0.01839390791298679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>14.041447921999</v>
-      </c>
-      <c r="H25">
-        <v>14.041447921999</v>
-      </c>
-      <c r="I25">
-        <v>0.07689116764748929</v>
-      </c>
-      <c r="J25">
-        <v>0.07689116764748929</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>147.383679601187</v>
-      </c>
-      <c r="N25">
-        <v>147.383679601187</v>
-      </c>
-      <c r="O25">
-        <v>0.4784026708306816</v>
-      </c>
-      <c r="P25">
-        <v>0.4784026708306816</v>
-      </c>
-      <c r="Q25">
-        <v>2069.480261672653</v>
-      </c>
-      <c r="R25">
-        <v>2069.480261672653</v>
-      </c>
-      <c r="S25">
-        <v>0.03678493996584857</v>
-      </c>
-      <c r="T25">
-        <v>0.03678493996584857</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H31">
+        <v>54.569936</v>
+      </c>
+      <c r="I31">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J31">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>150.2174506666667</v>
+      </c>
+      <c r="N31">
+        <v>450.652352</v>
+      </c>
+      <c r="O31">
+        <v>0.4639645390083261</v>
+      </c>
+      <c r="P31">
+        <v>0.4639645390083262</v>
+      </c>
+      <c r="Q31">
+        <v>2732.452222987719</v>
+      </c>
+      <c r="R31">
+        <v>24592.07000688947</v>
+      </c>
+      <c r="S31">
+        <v>0.0297353402919048</v>
+      </c>
+      <c r="T31">
+        <v>0.02973534029190481</v>
       </c>
     </row>
   </sheetData>
